--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.245499999999998</v>
+        <v>-7.456999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.05729999999999</v>
+        <v>-13.1001</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6504</v>
+        <v>-10.6672</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.006999999999994</v>
+        <v>-7.968999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.7182</v>
+        <v>-12.91109999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.672000000000001</v>
+        <v>-7.5875</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.336899999999998</v>
+        <v>-7.315099999999997</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.312500000000003</v>
+        <v>-7.182400000000008</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.470099999999997</v>
+        <v>-8.353499999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.6312</v>
+        <v>-12.6477</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.983799999999993</v>
+        <v>-7.910299999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.8503</v>
+        <v>-13.74609999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.12519999999999</v>
+        <v>-11.56329999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.073099999999995</v>
+        <v>-7.130099999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.420599999999997</v>
+        <v>-7.372800000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.2561</v>
+        <v>-12.26350000000001</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.30960000000001</v>
+        <v>-12.32310000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.963499999999998</v>
+        <v>-7.866099999999997</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.472299999999994</v>
+        <v>-7.405599999999996</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.439100000000001</v>
+        <v>-7.615900000000005</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.392600000000005</v>
+        <v>-8.408000000000005</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.787099999999997</v>
+        <v>-7.750799999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.924899999999997</v>
+        <v>-7.800599999999995</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
